--- a/biology/Botanique/Fronde_(botanique)/Fronde_(botanique).xlsx
+++ b/biology/Botanique/Fronde_(botanique)/Fronde_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fronde est un organe végétal qui joue le rôle de feuille chez certaines plantes telles que palmiers et fougères ou grandes algues (laminaires par exemple).
 Elles sont généralement de grande taille (sauf chez certaines espèces, notamment dans le genre Asplenium) et divisées en segments appelés pennes (partie unipennée), pinnules (partie bipennée) ou pinnulettes (pinnules secondaires dans une partie tripennée).
@@ -512,9 +524,11 @@
           <t>Description chez l'algue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les macroalgues ont des divisions du thalle, appelées frondes, qui prennent la forme de filaments, de cordons ou de lanières. Chez certaines laminaires, le long stipe est suivi d'une fronde constituée d'une lame unique qui peut être traversée par une côte médiane. Chez d'autres, elle est découpée en ramifications très grossières, lames plus ou moins larges qui ressemblent à des feuilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les macroalgues ont des divisions du thalle, appelées frondes, qui prennent la forme de filaments, de cordons ou de lanières. Chez certaines laminaires, le long stipe est suivi d'une fronde constituée d'une lame unique qui peut être traversée par une côte médiane. Chez d'autres, elle est découpée en ramifications très grossières, lames plus ou moins larges qui ressemblent à des feuilles.
 </t>
         </is>
       </c>
@@ -543,18 +557,92 @@
           <t>Description chez la fougère</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La fronde et la plante dans son ensemble constituent la génération sporophytique (à 2n chromosomes). Cette génération produit les spores (à n chromosomes) qui donneront naissance à la génération gamétophytique, que l'on appelle prothalle. Ce dernier va produire les gamètes qui, après fécondation, vont donner naissance au sporophyte.
 La disposition des frondes les unes par rapport aux autres peut être de deux types :
 le port en rosette : les feuilles partent toutes d'un même point. On parle également de port cespiteux (Blechnum spicant) ;
 le port « espacé » : les feuilles sont espacées les unes des autres, elles prennent naissance le long d'un rhizome horizontal (Polypodium vulgare).
-Degré de division du limbe d'une fronde
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fronde_(botanique)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fronde_(botanique)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description chez la fougère</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Degré de division du limbe d'une fronde</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Asplenium scolopendrium, limbe entier
 			Polypodium vulgare, limbe segmenté
 			Pteridium aquilinum, limbe une fois divisé
 			Athyrium filix-femina, limbe deux fois divisé
-Forme du contour du limbe
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fronde_(botanique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fronde_(botanique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description chez la fougère</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Forme du contour du limbe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Doradille du nord (Asplenium septentrionale), limbe linéaire
 			Oreopteris limbosperma, limbe lancéolé
 			Thelypteris palustris, limbe ovale-lancéolé
@@ -563,31 +651,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Fronde_(botanique)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fronde_(botanique)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Développement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les frondes prennent naissance sur un rhizome généralement horizontal.
 À l'état jeune, les feuilles des fougères sont enroulées : elles sont alors nommées crosses en raison de leur ressemblance avec une crosse d'évêque. Le développement de la fronde s'effectue par une croissance différentielle des cellules de la face inférieure (à l'extérieur) et supérieure (à l'intérieur) : les cellules externes ont une croissance plus rapide que les autres, ce qui provoque le déroulement de la feuille.
